--- a/FILES/BALANCE/Indicators.xlsx
+++ b/FILES/BALANCE/Indicators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ehlimana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ehlimana\Documents\GitHub\Electricity-analysis\FILES\BALANCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAFA854-A978-417E-86B5-D8CF188BE15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38E30A7-C296-44C4-A0AA-DEB300FD3111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{9ECBF676-24DD-469E-AE51-5CD404D8790A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9ECBF676-24DD-469E-AE51-5CD404D8790A}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2 intensity of energy mix" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Total CO2 EMISSIONS" sheetId="4" r:id="rId3"/>
     <sheet name="TES per GDP " sheetId="5" r:id="rId4"/>
     <sheet name="TES per capita " sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
+    <sheet name="CO2 Emissions per capita" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
   <si>
     <t>CO2 EMISSIONS PER UNIT gdp, KG CO2/2015 USD</t>
   </si>
@@ -138,6 +139,9 @@
   <si>
     <t>GJ/CAPITA</t>
   </si>
+  <si>
+    <t>tCO2/capita</t>
+  </si>
 </sst>
 </file>
 
@@ -181,11 +185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +508,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A27" sqref="A27:K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1209,9 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90A897B-69D8-4934-BE93-C910ADF1C8E7}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1431,7 +1434,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1648,9 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D971DAA-37F5-4DFE-9177-B6849F822946}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1837,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FE1C8C-39CD-43D2-8A11-9C91E0225AAA}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2026,6 +2027,223 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202C0967-BCE8-4C73-8F68-60225B3EA382}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA78C121-2EE9-4B50-9FE7-738B5F2AE4CE}">
   <dimension ref="A1:I21"/>
   <sheetViews>

--- a/FILES/BALANCE/Indicators.xlsx
+++ b/FILES/BALANCE/Indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ehlimana\Documents\GitHub\Electricity-analysis\FILES\BALANCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38E30A7-C296-44C4-A0AA-DEB300FD3111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF36B60B-36A6-4C73-AF35-DE4F0D7ED517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9ECBF676-24DD-469E-AE51-5CD404D8790A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{9ECBF676-24DD-469E-AE51-5CD404D8790A}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2 intensity of energy mix" sheetId="1" r:id="rId1"/>
@@ -185,12 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,7 +1215,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90A897B-69D8-4934-BE93-C910ADF1C8E7}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1469,7 +1472,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>2015</v>
       </c>
       <c r="B2">
@@ -1498,7 +1501,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2016</v>
       </c>
       <c r="B3">
@@ -1527,7 +1530,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2017</v>
       </c>
       <c r="B4">
@@ -1556,7 +1559,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>2018</v>
       </c>
       <c r="B5">
@@ -1585,7 +1588,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>2019</v>
       </c>
       <c r="B6">
@@ -1614,7 +1617,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>2020</v>
       </c>
       <c r="B7">
@@ -1644,14 +1647,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D971DAA-37F5-4DFE-9177-B6849F822946}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1685,7 +1691,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>2015</v>
       </c>
       <c r="B2">
@@ -1714,7 +1720,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2016</v>
       </c>
       <c r="B3">
@@ -1743,7 +1749,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2017</v>
       </c>
       <c r="B4">
@@ -1772,7 +1778,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>2018</v>
       </c>
       <c r="B5">
@@ -1801,7 +1807,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>2019</v>
       </c>
       <c r="B6">
@@ -1828,6 +1834,9 @@
       <c r="I6">
         <v>3.4</v>
       </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FE1C8C-39CD-43D2-8A11-9C91E0225AAA}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1877,7 +1886,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>2015</v>
       </c>
       <c r="B2">
@@ -1906,7 +1915,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2016</v>
       </c>
       <c r="B3">
@@ -1935,7 +1944,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2017</v>
       </c>
       <c r="B4">
@@ -1964,7 +1973,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>2018</v>
       </c>
       <c r="B5">
@@ -1993,7 +2002,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>2019</v>
       </c>
       <c r="B6">
@@ -2020,6 +2029,9 @@
       <c r="I6">
         <v>148.19999999999999</v>
       </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2030,7 +2042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202C0967-BCE8-4C73-8F68-60225B3EA382}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2064,7 +2078,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>2015</v>
       </c>
       <c r="B2" s="2">
@@ -2093,7 +2107,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2016</v>
       </c>
       <c r="B3" s="2">
@@ -2122,7 +2136,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2017</v>
       </c>
       <c r="B4" s="2">
@@ -2151,7 +2165,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>2018</v>
       </c>
       <c r="B5" s="2">
@@ -2180,7 +2194,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>2019</v>
       </c>
       <c r="B6" s="2">
@@ -2209,7 +2223,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>2020</v>
       </c>
       <c r="B7" s="2">
